--- a/OnBoard/output/trust/catch/Catch_Trust_34.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_34.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -897,10 +897,10 @@
         </is>
       </c>
       <c r="G13">
-        <v>0.146</v>
+        <v>0.038</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1380,22 +1380,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Actiniaria nd</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>ACTINND</t>
         </is>
       </c>
       <c r="G25">
-        <v>0.348</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H25">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>4.807704918032787</v>
       </c>
     </row>
     <row r="26">
@@ -1421,22 +1421,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Actiniaria nd</t>
+          <t>Anadara kagoshimensis</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ACTINND</t>
+          <t>ANADKAG</t>
         </is>
       </c>
       <c r="G26">
-        <v>0.008999999999999999</v>
+        <v>1.581</v>
       </c>
       <c r="H26">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="I26">
-        <v>4.732950819672132</v>
+        <v>4.807704918032787</v>
       </c>
     </row>
     <row r="27">
@@ -1462,22 +1462,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Anadara kagoshimensis</t>
+          <t>Anadara transversa</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ANADKAG</t>
+          <t>ANADTRA</t>
         </is>
       </c>
       <c r="G27">
-        <v>1.581</v>
+        <v>0.14</v>
       </c>
       <c r="H27">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="I27">
-        <v>4.732950819672132</v>
+        <v>4.807704918032787</v>
       </c>
     </row>
     <row r="28">
@@ -1503,22 +1503,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Anadara transversa</t>
+          <t>Anomia ephippium</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ANADTRA</t>
+          <t>ANOMEPH</t>
         </is>
       </c>
       <c r="G28">
-        <v>0.14</v>
+        <v>0.001</v>
       </c>
       <c r="H28">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>4.732950819672132</v>
+        <v>4.807704918032787</v>
       </c>
     </row>
     <row r="29">
@@ -1544,22 +1544,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Anomia ephippium</t>
+          <t>Aporrhais pespelecani</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ANOMEPH</t>
+          <t>APORPES</t>
         </is>
       </c>
       <c r="G29">
-        <v>0.001</v>
+        <v>0.224</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="I29">
-        <v>4.732950819672132</v>
+        <v>4.807704918032787</v>
       </c>
     </row>
     <row r="30">
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Aporrhais pespelecani</t>
+          <t>Ascidiella aspersa</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>APORPES</t>
+          <t>ASCIASP</t>
         </is>
       </c>
       <c r="G30">
-        <v>0.224</v>
+        <v>0.008</v>
       </c>
       <c r="H30">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="I30">
-        <v>4.732950819672132</v>
+        <v>4.807704918032787</v>
       </c>
     </row>
     <row r="31">
@@ -1626,22 +1626,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ascidiella aspersa</t>
+          <t>Astropecten irregularis</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ASCIASP</t>
+          <t>ASTRIRR</t>
         </is>
       </c>
       <c r="G31">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>4.732950819672132</v>
+        <v>4.807704918032787</v>
       </c>
     </row>
     <row r="32">
@@ -1667,22 +1667,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Astropecten irregularis</t>
+          <t>Biological discard</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ASTRIRR</t>
+          <t>BIOLDIS</t>
         </is>
       </c>
       <c r="G32">
-        <v>0.005</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I32">
-        <v>4.732950819672132</v>
+        <v>4.807704918032787</v>
       </c>
     </row>
     <row r="33">
@@ -1708,22 +1708,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Biological discard</t>
+          <t>Goneplax rhomboides</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>BIOLDIS</t>
+          <t>GONERHO</t>
         </is>
       </c>
       <c r="G33">
-        <v>0.08699999999999999</v>
+        <v>0.047</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I33">
-        <v>4.732950819672132</v>
+        <v>4.807704918032787</v>
       </c>
     </row>
     <row r="34">
@@ -1749,22 +1749,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Goneplax rhomboides</t>
+          <t>Liocarcinus depurator</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>GONERHO</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="G34">
-        <v>0.047</v>
+        <v>0.023</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>4.732950819672132</v>
+        <v>4.807704918032787</v>
       </c>
     </row>
     <row r="35">
@@ -1790,22 +1790,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Liocarcinus depurator</t>
+          <t>Medorippe lanata</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MEDOLAN</t>
         </is>
       </c>
       <c r="G35">
-        <v>0.023</v>
+        <v>0.101</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I35">
-        <v>4.732950819672132</v>
+        <v>4.807704918032787</v>
       </c>
     </row>
     <row r="36">
@@ -1831,22 +1831,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Medorippe lanata</t>
+          <t>Mytilus galloprovincialis</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MEDOLAN</t>
+          <t>MYTGALL</t>
         </is>
       </c>
       <c r="G36">
-        <v>0.101</v>
+        <v>0.013</v>
       </c>
       <c r="H36">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I36">
-        <v>4.732950819672132</v>
+        <v>4.807704918032787</v>
       </c>
     </row>
     <row r="37">
@@ -1872,22 +1872,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Mytilus galloprovincialis</t>
+          <t>Polychaeta n.d. Tubes</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MYTGALL</t>
+          <t>TUBEPOL</t>
         </is>
       </c>
       <c r="G37">
-        <v>0.013</v>
+        <v>0.001</v>
       </c>
       <c r="H37">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I37">
-        <v>4.732950819672132</v>
+        <v>4.807704918032787</v>
       </c>
     </row>
     <row r="38">
@@ -1913,22 +1913,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Polychaeta n.d. Tubes</t>
+          <t>Schizaster canaliferus</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>TUBEPOL</t>
+          <t>SCHICAN</t>
         </is>
       </c>
       <c r="G38">
-        <v>0.001</v>
+        <v>0.018</v>
       </c>
       <c r="H38">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>4.732950819672132</v>
+        <v>4.807704918032787</v>
       </c>
     </row>
     <row r="39">
@@ -1954,22 +1954,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Schizaster canaliferus</t>
+          <t>Shells NA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>SCHICAN</t>
+          <t>SHELLS</t>
         </is>
       </c>
       <c r="G39">
-        <v>0.018</v>
+        <v>0.961</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I39">
-        <v>4.732950819672132</v>
+        <v>4.807704918032787</v>
       </c>
     </row>
     <row r="40">
@@ -1995,22 +1995,22 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Shells NA</t>
+          <t>Trachythyone elongata</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>SHELLS</t>
+          <t>TRACELO</t>
         </is>
       </c>
       <c r="G40">
-        <v>0.961</v>
+        <v>0.001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>4.732950819672132</v>
+        <v>4.807704918032787</v>
       </c>
     </row>
     <row r="41">
@@ -2036,22 +2036,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Trachythyone elongata</t>
+          <t>Turritella communis</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>TRACELO</t>
+          <t>TURRCOM</t>
         </is>
       </c>
       <c r="G41">
         <v>0.001</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>4.732950819672132</v>
+        <v>4.807704918032787</v>
       </c>
     </row>
     <row r="42">
@@ -2077,63 +2077,22 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Turritella communis</t>
+          <t>Wood NA</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>TURRCOM</t>
+          <t>WOOD</t>
         </is>
       </c>
       <c r="G42">
-        <v>0.001</v>
+        <v>0.152</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I42">
-        <v>4.732950819672132</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Wood NA</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>WOOD</t>
-        </is>
-      </c>
-      <c r="G43">
-        <v>0.152</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>4.732950819672132</v>
+        <v>4.807704918032787</v>
       </c>
     </row>
   </sheetData>
